--- a/Aula 03 Oracle/Template_VendeBem_Exercicio_Aula_02_Estrutura_Dados2.xlsx
+++ b/Aula 03 Oracle/Template_VendeBem_Exercicio_Aula_02_Estrutura_Dados2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B2E34-7DB5-46C2-819C-8B06756D6D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B029D4-B5A0-49BB-A0D5-7D7332E25182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A119B2C4-549D-42F4-96FE-1FF968E52769}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>ESTUDO DE CASO</t>
   </si>
@@ -179,18 +179,9 @@
     <t>CHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">S(simples)  </t>
-  </si>
-  <si>
-    <t>D(determinante)</t>
-  </si>
-  <si>
     <t>ENDEREÇO</t>
   </si>
   <si>
-    <t>C(composto)</t>
-  </si>
-  <si>
     <t>TELEFONE</t>
   </si>
   <si>
@@ -209,7 +200,46 @@
     <t>NOME DO PRODUTO</t>
   </si>
   <si>
-    <t>S(simples)</t>
+    <t>NÚMERO DE PEDIDO</t>
+  </si>
+  <si>
+    <t>VALOR TOTAL DO PEDIDO</t>
+  </si>
+  <si>
+    <t>FORMA DE PAGAMENTO</t>
+  </si>
+  <si>
+    <t>SIMPLES</t>
+  </si>
+  <si>
+    <t>DATA/HORA DO PEDIDO</t>
+  </si>
+  <si>
+    <t>DETERMINANTE</t>
+  </si>
+  <si>
+    <t>INSCRIÇÃO ESTADUAL</t>
+  </si>
+  <si>
+    <t>MONO (valorado)</t>
+  </si>
+  <si>
+    <t>VALOR DO PRODUTO</t>
+  </si>
+  <si>
+    <t>COMPOSTO E MULTIVALORADO</t>
+  </si>
+  <si>
+    <t>NUMERO DA MESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAR </t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTI </t>
   </si>
 </sst>
 </file>
@@ -929,10 +959,10 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1078,7 +1108,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -1086,23 +1116,23 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="16">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1110,23 +1140,23 @@
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="17">
         <v>15</v>
-      </c>
-      <c r="E11" s="17">
-        <v>13</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -1134,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -1150,35 +1180,63 @@
         <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="17">
+        <v>12</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="16">
+        <v>10</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>15</v>
@@ -1193,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1204,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>22</v>
@@ -1217,7 +1275,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>33</v>
@@ -1227,13 +1285,25 @@
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="18">
+        <v>10</v>
+      </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
@@ -1289,45 +1359,99 @@
       <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="20">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="23">
+        <v>20</v>
+      </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="20"/>
+      <c r="B25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="20">
+        <v>10</v>
+      </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="23">
+        <v>10</v>
+      </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="G26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
